--- a/1-AdaptacionEtapa1/1.1 Propuesta/MatrizdeEspecificaciones_AjustadaAPropuestas.xlsx
+++ b/1-AdaptacionEtapa1/1.1 Propuesta/MatrizdeEspecificaciones_AjustadaAPropuestas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="232">
   <si>
     <t>No. Indicador</t>
   </si>
@@ -598,9 +598,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Además de las observaciones señaladas de manera específica por cada reactivo asociado a cada indicador. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Se elimina este reactivo 
 </t>
@@ -730,9 +727,6 @@
   </si>
   <si>
     <t>Emplear la información que obtiene de los espacios académicos para fortalecer su formación.</t>
-  </si>
-  <si>
-    <t>Se mantiene igual</t>
   </si>
   <si>
     <r>
@@ -1152,6 +1146,439 @@
         <scheme val="minor"/>
       </rPr>
       <t>-&gt; Se añade una aclaración final "para su aprendizaje y desarrollo profesional"</t>
+    </r>
+  </si>
+  <si>
+    <t>Realizar acciones con la comunidad que fomenten el respeto por las diferencias individuales para favorecer la inclusión y equidad educativa</t>
+  </si>
+  <si>
+    <t>Participar con la comunidad en actividades que incluyen las características culturales (lengua, costumbres, tradiciones, vestimenta, entre otros) de los alumnos, para cumplir con los propósitos educativos.</t>
+  </si>
+  <si>
+    <t>Participar con los alumnos en la construcción de normas o acuerdos de convivencia considerando la edad, las características de los alumnos y la perspectiva de género*.</t>
+  </si>
+  <si>
+    <t>Realizar con la comunidad escolar acciones que promuevan actitudes de compromiso, colaboración y solidaridad</t>
+  </si>
+  <si>
+    <t>Realizar adecuaciones a la planeación para eliminar o minimizar  las barreras para el aprendizaje  y la participación de los alumnos</t>
+  </si>
+  <si>
+    <t>Asistir a clase los días establecidos en el calendario escolar, en la medida que la administración escolar lo permita.</t>
+  </si>
+  <si>
+    <t>Iniciar las clases con puntualidad, en la medida que la administración escolar lo permita.</t>
+  </si>
+  <si>
+    <t>Utilizar todo el tiempo frente a grupo en actividades para el logro de los aprendizajes de los alumnos.</t>
+  </si>
+  <si>
+    <t>Toma en cuenta la normativa vigente que rige su labor e incide en el desarrollo y la mejora de su trabajo educativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se elimina el reactivo </t>
+  </si>
+  <si>
+    <t>Utilizar sistemáticamente los libros de texto u otros materiales, disponibles en su contexto, para el logro de los aprendizajes de los alumnos.</t>
+  </si>
+  <si>
+    <t>Realizar actividades que favorezcan la participación de todos los alumnos en el trabajo en clase.</t>
+  </si>
+  <si>
+    <t>Aplicar estrategias que favorecen el desarrollo de habilidades de lectura y escritura, en cumplimiento de la Normalidad Mínima de Operación.</t>
+  </si>
+  <si>
+    <t>Aplicar estrategias que favorecen el desarrollo del pensamiento matemático, en cumplimiento de la Normalidad Mínima de Operación.</t>
+  </si>
+  <si>
+    <t>Establecer acuerdos o compromisos con los padres de familia / tutores para que participen en la tarea educativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar acciones de intervención con la comunidad para atender las áreas de oportunidad de la escuela. </t>
+  </si>
+  <si>
+    <t>Desarrollar acciones de vinculación con diversas instituciones  / instancias que apoyen la tarea educativa.</t>
+  </si>
+  <si>
+    <t>Utilizar los resultados educativos para el diagnóstico escolar.</t>
+  </si>
+  <si>
+    <t>Proponer en el Consejo Técnico Escolar o de Zona acciones que promuevan la mejora de los aprendizajes de los alumnos.</t>
+  </si>
+  <si>
+    <t>Plantear en el Consejo Técnico Escolar o de Zona acciones que, dentro de sus posibilidades, disminuyan el abandono escolar.</t>
+  </si>
+  <si>
+    <t>Proponer en el Consejo Técnico Escolar o de Zona actividades que promuevan la convivencia escolar.</t>
+  </si>
+  <si>
+    <t>Establecer con el Consejo Técnico Escolar o de Zona estrategias para dar cumplimiento a la Normalidad Mínima de Operación Escolar.</t>
+  </si>
+  <si>
+    <t>Participar, dentro de sus posibilidades, con sus pares en el análisis de su práctica docente con la finalidad de mejorarla.</t>
+  </si>
+  <si>
+    <t>Emplear la lectura de textos como estrategia de estudio que fortalezca su desarrollo profesional.</t>
+  </si>
+  <si>
+    <t>Participar con otros actores educativos y de la comunidad en redes de colaboración para fortalecer su desarrollo profesional.</t>
+  </si>
+  <si>
+    <t>Participar en el intercambio de experiencias educativas en el Consejo Técnico Escolar o de Zona para su aprendizaje y desarrollo profesional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplear los recursos disponibles en su contexto que fortalezcan su desarrollo profesional. </t>
+  </si>
+  <si>
+    <t>Emplear la información que obtiene de los espacios académicos para fortalecer su desarrollo profesional.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Además de los cambios realizados a los reactivos, se presentan las siguientes propuestas de modificaicón a la estructura general del instrumento (la redacción de las introducción, las instrucciones y las descripciones de cada bloque):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sobre la introducción:
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se cambia el enunciado "escala de frecuencia, es decir, en qué medida cumplió con ella" por "escala de frecuencia, es decir, con qué regularidad cumplió con ella".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eliminar el cuarto párrafo; no proporciona información relevante y sugiere desconfianza en el sustentante.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sobre las instrucciones:
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Terminar el primer párrafo con "durante el ciclo escolar vigente", de manera que no se tenga que estar ajustando el periodo en cada aplicación.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sobre la estructura generl del instrumento: 
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cambiar la escala del 1 al 6, en lugar del 0 al 5.  De manera que no haya disonancia con el uso del número 0 para denotar "muy poco" de algo.
+-&gt; Solicitar que se justifiquen las respuestas que se hayan registrado en el nivel 6, el nuevo máximo de la escala.
+-&gt; Homologar el uso del término "acciones" en la descripción de todos los bloques y escalas, como sustituto de las expresiones "tareaas" o "actividades". 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se cambia el contenido:
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se amplía la expresión "libros de texto u otros materiales disponibles en su contexto".
+-&gt; Se añade la especificación al final del reactivo "para el logro de los aprendizajes de los alumnos". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se cambia la redacción:
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se cambia el enunciado "redes de colaboración académicas para el intercambio de experiencias" por "redes de colaboración académicas para fortalecer su desarrollo profesional". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se cambia la redacción:
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se modifica la conjugación del verbo fortalecer, de "fortalecen" a "fortalezcan". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se cambia el contenido:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; Se agrega un enunciado que explicita que se trata de una acción a realizar "en el Consejo Técnico Escolar o de Zona".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Se cambia la redacción:
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se cambia el verbo "favorezcan" por "promuevan". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se cambia el contenido:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; Se añade el enunciado "dentro de sus posibilidades" en reconocimiento de las características de estos tipos de servicio.
+-&gt; Se sustituye el enunciado "para identificar aspectos de mejora en su desempeño" por "en el análisis de su práctica docente con la finalidad de mejorarla". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se cambia el contenido:
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se omite la mención de la Ruta de Mejora escolar, eliminando el enunciado "que le permitan alcanzar las metas establecidas en la Ruta de Mejora Escolar" y terminando en su lugar  el reactivo con "de la escuela". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Se cambia la redacción:
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se sustituye el verbo "Implementar" por "Reaizar"
+-&gt; Se elimina el término "escolar" de "comunidad"..
+-&gt; Se agrega "para atender", como conector entre "la comunidad" y las "areas de oportunidad de la escuela".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se cambia el contenido: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; Se sustituye el enunciado "de los alumnos para la conformación del diagnóstico escolar" por "para el diagnóstico escolar". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se cambia el contenido:
+-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se agrega la acotación "dentro de sus posibilidades", para reconocer las características del tipo de servicio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se cambia el contenido:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; Se agrega un enunciado que explicita que se trata de una acción a realizar "en el Consejo Técnico Escolar o de Zona".</t>
     </r>
   </si>
 </sst>
@@ -1223,7 +1650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,18 +1677,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1378,45 +1799,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1427,104 +1935,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="I23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,35 +2366,35 @@
     <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" style="15" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" style="28" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -1961,25 +2404,25 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -1989,25 +2432,25 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -2017,25 +2460,25 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -2045,47 +2488,47 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -2095,1586 +2538,1632 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="4" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="4" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="25" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="4" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="32"/>
     </row>
     <row r="8" spans="1:26" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="11">
         <v>1</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="11">
         <v>5</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="11">
         <v>5</v>
       </c>
-      <c r="N8" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="P8" s="42">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="24"/>
+      <c r="N8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
     </row>
-    <row r="9" spans="1:26" ht="102" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:26" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="11">
         <v>1</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="11">
         <v>6</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="23">
+      <c r="K9" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="11">
         <v>1</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="11">
         <v>6</v>
       </c>
-      <c r="N9" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="P9" s="42">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="24"/>
+      <c r="N9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44"/>
     </row>
     <row r="10" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="11">
         <v>1</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="11">
         <v>4</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="23">
+      <c r="K10" s="14"/>
+      <c r="L10" s="11">
         <v>1</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="11">
         <v>4</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="46" t="s">
+      <c r="N10" s="21"/>
+      <c r="O10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="1:26" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11">
+        <v>3</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
+    </row>
+    <row r="13" spans="1:26" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2</v>
+      </c>
+      <c r="K13" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="48"/>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
     </row>
-    <row r="11" spans="1:26" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="16" t="s">
+    <row r="14" spans="1:26" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="11">
         <v>1</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I14" s="11">
         <v>1</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J14" s="11">
+        <v>7</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="11">
         <v>1</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="23">
+      <c r="M14" s="11">
+        <v>7</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
+    </row>
+    <row r="15" spans="1:26" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="11">
         <v>1</v>
       </c>
-      <c r="M11" s="23">
-        <v>1</v>
-      </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="48"/>
-    </row>
-    <row r="12" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="23">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23">
-        <v>1</v>
-      </c>
-      <c r="J12" s="23">
-        <v>3</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12" s="23">
-        <v>1</v>
-      </c>
-      <c r="M12" s="23">
-        <v>3</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="P12" s="42">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="24"/>
-    </row>
-    <row r="13" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="23">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23">
-        <v>1</v>
-      </c>
-      <c r="J13" s="23">
-        <v>2</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="L13" s="23">
-        <v>1</v>
-      </c>
-      <c r="M13" s="23">
-        <v>2</v>
-      </c>
-      <c r="N13" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="P13" s="42">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="24"/>
-    </row>
-    <row r="14" spans="1:26" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="23">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23">
-        <v>7</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="L14" s="23">
-        <v>1</v>
-      </c>
-      <c r="M14" s="23">
-        <v>7</v>
-      </c>
-      <c r="N14" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" s="42">
+      <c r="I15" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J15" s="16">
         <v>11</v>
       </c>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="24"/>
-    </row>
-    <row r="15" spans="1:26" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="23">
-        <v>1</v>
-      </c>
-      <c r="I15" s="29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J15" s="29">
-        <v>11</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="P15" s="42">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="42">
-        <v>12</v>
+      <c r="K15" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="34">
         <v>1</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="11">
         <v>2.1</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="11">
         <v>8</v>
       </c>
-      <c r="K16" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" s="23">
+      <c r="K16" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="11">
         <v>2.1</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="11">
         <v>8</v>
       </c>
-      <c r="N16" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" s="42">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="24"/>
+      <c r="N16" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
     </row>
     <row r="17" spans="1:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="30">
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="17">
         <v>2.1</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="17">
         <v>9</v>
       </c>
-      <c r="K17" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17" s="30">
+      <c r="K17" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="17">
         <v>2.1</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="17">
         <v>9</v>
       </c>
-      <c r="N17" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" s="42">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="24"/>
+      <c r="N17" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="44"/>
     </row>
-    <row r="18" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12" t="s">
+    <row r="18" spans="1:19" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="30">
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="17">
         <v>12</v>
       </c>
-      <c r="K18" s="39">
-        <v>12</v>
-      </c>
-      <c r="L18" s="30">
+      <c r="K18" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="17">
         <v>11</v>
       </c>
-      <c r="N18" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="P18" s="42">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="24"/>
+      <c r="N18" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="44"/>
     </row>
     <row r="19" spans="1:19" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="30">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="17">
         <v>2.1</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="17">
         <v>10</v>
       </c>
-      <c r="K19" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="30">
+      <c r="K19" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="17">
         <v>2.1</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="17">
         <v>10</v>
       </c>
-      <c r="N19" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="P19" s="42">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="24"/>
+      <c r="N19" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
     </row>
-    <row r="20" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12" t="s">
+    <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="30">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="17">
         <v>13</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M20" s="17">
+        <v>12</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+    </row>
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J21" s="17">
+        <v>14</v>
+      </c>
+      <c r="K21" s="20">
+        <v>14</v>
+      </c>
+      <c r="L21" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M21" s="17">
         <v>13</v>
       </c>
-      <c r="L20" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M20" s="30">
-        <v>12</v>
-      </c>
-      <c r="N20" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O20" s="39" t="s">
+      <c r="N21" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="P20" s="42">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="24"/>
-    </row>
-    <row r="21" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J21" s="30">
-        <v>14</v>
-      </c>
-      <c r="K21" s="39">
-        <v>14</v>
-      </c>
-      <c r="L21" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M21" s="30">
-        <v>13</v>
-      </c>
-      <c r="N21" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="P21" s="42">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="24"/>
+      <c r="P21" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
     </row>
     <row r="22" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="12" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="30">
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="17">
         <v>15</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="20">
         <v>15</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="17">
         <v>14</v>
       </c>
-      <c r="N22" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="P22" s="42">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="24"/>
+      <c r="N22" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="P22" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="44"/>
     </row>
     <row r="23" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="11">
         <v>1</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="11">
         <v>3</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="11">
         <v>16</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="11">
         <v>3</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="11">
         <v>15</v>
       </c>
-      <c r="N23" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="P23" s="42">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="24"/>
+      <c r="N23" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
     </row>
-    <row r="24" spans="1:19" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:19" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="11">
         <v>1</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="11">
         <v>3</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="11">
         <v>19</v>
       </c>
-      <c r="K24" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L24" s="23">
+      <c r="K24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" s="11">
         <v>3</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="11">
         <v>18</v>
       </c>
-      <c r="N24" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="P24" s="42">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="24"/>
+      <c r="N24" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="44"/>
     </row>
     <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="34">
         <v>1</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="11">
         <v>4</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="11">
         <v>20</v>
       </c>
-      <c r="K25" s="27">
-        <v>20</v>
-      </c>
-      <c r="L25" s="23">
+      <c r="K25" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" s="11">
         <v>4</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="11">
         <v>19</v>
       </c>
-      <c r="N25" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="P25" s="42">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="24"/>
+      <c r="N25" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="44"/>
     </row>
     <row r="26" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="12" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="30">
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="17">
         <v>4</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="17">
         <v>21</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="20"/>
+      <c r="L26" s="17">
+        <v>4</v>
+      </c>
+      <c r="M26" s="17">
+        <v>20</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
+    </row>
+    <row r="27" spans="1:19" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="34">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
+        <v>4</v>
+      </c>
+      <c r="J27" s="11">
+        <v>22</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" s="11">
+        <v>4</v>
+      </c>
+      <c r="M27" s="11">
         <v>21</v>
       </c>
-      <c r="L26" s="30">
+      <c r="N27" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P27" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="44"/>
+    </row>
+    <row r="28" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="17">
         <v>4</v>
       </c>
-      <c r="M26" s="30">
-        <v>20</v>
-      </c>
-      <c r="N26" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O26" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="P26" s="42">
+      <c r="J28" s="17">
         <v>23</v>
       </c>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="24"/>
+      <c r="K28" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" s="17">
+        <v>4</v>
+      </c>
+      <c r="M28" s="17">
+        <v>22</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="P28" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="44"/>
     </row>
-    <row r="27" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1</v>
-      </c>
-      <c r="I27" s="23">
+    <row r="29" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="17">
         <v>4</v>
       </c>
-      <c r="J27" s="23">
-        <v>22</v>
-      </c>
-      <c r="K27" s="27">
-        <v>22</v>
-      </c>
-      <c r="L27" s="23">
+      <c r="J29" s="17">
+        <v>24</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" s="17">
         <v>4</v>
       </c>
-      <c r="M27" s="23">
-        <v>21</v>
-      </c>
-      <c r="N27" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="P27" s="42">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="24"/>
-    </row>
-    <row r="28" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="30">
-        <v>4</v>
-      </c>
-      <c r="J28" s="30">
+      <c r="M29" s="17">
         <v>23</v>
       </c>
-      <c r="K28" s="39">
-        <v>23</v>
-      </c>
-      <c r="L28" s="30">
-        <v>4</v>
-      </c>
-      <c r="M28" s="30">
-        <v>22</v>
-      </c>
-      <c r="N28" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O28" s="39" t="s">
+      <c r="N29" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O29" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="P28" s="42">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="24"/>
-    </row>
-    <row r="29" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="30">
-        <v>4</v>
-      </c>
-      <c r="J29" s="30">
-        <v>24</v>
-      </c>
-      <c r="K29" s="39">
-        <v>24</v>
-      </c>
-      <c r="L29" s="30">
-        <v>4</v>
-      </c>
-      <c r="M29" s="30">
-        <v>23</v>
-      </c>
-      <c r="N29" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="P29" s="42">
-        <v>26</v>
-      </c>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="24"/>
+      <c r="P29" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="44"/>
     </row>
     <row r="30" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="12" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="30">
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="17">
         <v>4</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="17">
         <v>25</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="20">
         <v>25</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="17">
         <v>4</v>
       </c>
-      <c r="M30" s="30">
+      <c r="M30" s="17">
         <v>24</v>
       </c>
-      <c r="N30" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="P30" s="42">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="24"/>
+      <c r="N30" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="44"/>
     </row>
-    <row r="31" spans="1:19" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:19" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="11">
         <v>1</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="11">
         <v>3</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="11">
         <v>17</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" s="11">
+        <v>3</v>
+      </c>
+      <c r="M31" s="11">
+        <v>16</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="44"/>
+    </row>
+    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1</v>
+      </c>
+      <c r="I32" s="11">
+        <v>3</v>
+      </c>
+      <c r="J32" s="11">
+        <v>18</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="11">
+        <v>3</v>
+      </c>
+      <c r="M32" s="11">
         <v>17</v>
       </c>
-      <c r="L31" s="23">
-        <v>3</v>
-      </c>
-      <c r="M31" s="23">
-        <v>16</v>
-      </c>
-      <c r="N31" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O31" s="27" t="s">
+      <c r="N32" s="21"/>
+      <c r="O32" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="P31" s="42">
-        <v>28</v>
-      </c>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="24"/>
-    </row>
-    <row r="32" spans="1:19" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="23">
-        <v>1</v>
-      </c>
-      <c r="I32" s="23">
-        <v>3</v>
-      </c>
-      <c r="J32" s="23">
-        <v>18</v>
-      </c>
-      <c r="K32" s="27">
-        <v>18</v>
-      </c>
-      <c r="L32" s="23">
-        <v>3</v>
-      </c>
-      <c r="M32" s="23">
-        <v>17</v>
-      </c>
-      <c r="N32" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="P32" s="42">
-        <v>29</v>
-      </c>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
       <c r="S32" s="24"/>
     </row>
-    <row r="33" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:19" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="11">
         <v>1</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="11">
         <v>5</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="11">
         <v>26</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L33" s="11">
+        <v>5</v>
+      </c>
+      <c r="M33" s="11">
+        <v>25</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="P33" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
+    </row>
+    <row r="34" spans="1:19" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1</v>
+      </c>
+      <c r="I34" s="11">
+        <v>5</v>
+      </c>
+      <c r="J34" s="11">
+        <v>27</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L34" s="11">
+        <v>5</v>
+      </c>
+      <c r="M34" s="11">
         <v>26</v>
       </c>
-      <c r="L33" s="23">
+      <c r="N34" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="44"/>
+    </row>
+    <row r="35" spans="1:19" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11">
         <v>5</v>
       </c>
-      <c r="M33" s="23">
-        <v>25</v>
-      </c>
-      <c r="N33" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P33" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="24"/>
-    </row>
-    <row r="34" spans="1:19" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="23">
-        <v>1</v>
-      </c>
-      <c r="I34" s="23">
+      <c r="J35" s="11">
+        <v>28</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="11">
         <v>5</v>
       </c>
-      <c r="J34" s="23">
+      <c r="M35" s="11">
         <v>27</v>
       </c>
-      <c r="K34" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="L34" s="23">
-        <v>5</v>
-      </c>
-      <c r="M34" s="23">
-        <v>26</v>
-      </c>
-      <c r="N34" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O34" s="27" t="s">
+      <c r="N35" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O35" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="P34" s="42">
-        <v>31</v>
-      </c>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="24"/>
-    </row>
-    <row r="35" spans="1:19" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" s="23">
-        <v>1</v>
-      </c>
-      <c r="I35" s="23">
-        <v>5</v>
-      </c>
-      <c r="J35" s="23">
-        <v>28</v>
-      </c>
-      <c r="K35" s="27">
-        <v>28</v>
-      </c>
-      <c r="L35" s="23">
-        <v>5</v>
-      </c>
-      <c r="M35" s="23">
-        <v>27</v>
-      </c>
-      <c r="N35" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="P35" s="42">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="24"/>
+      <c r="P35" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="44"/>
     </row>
     <row r="36" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="11">
         <v>1</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="11">
         <v>5</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="11">
         <v>29</v>
       </c>
-      <c r="K36" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="L36" s="23">
+      <c r="K36" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36" s="11">
         <v>5</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="11">
         <v>28</v>
       </c>
-      <c r="N36" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O36" s="27" t="s">
+      <c r="N36" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="P36" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="44"/>
+    </row>
+    <row r="37" spans="1:19" s="52" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="16">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16">
+        <v>5</v>
+      </c>
+      <c r="J37" s="16">
+        <v>30</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="O37" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="P36" s="42">
-        <v>33</v>
-      </c>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="24"/>
-    </row>
-    <row r="37" spans="1:19" ht="102" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="23">
-        <v>1</v>
-      </c>
-      <c r="I37" s="31">
-        <v>5</v>
-      </c>
-      <c r="J37" s="31">
-        <v>30</v>
-      </c>
-      <c r="K37" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="O37" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="P37" s="42">
-        <v>34</v>
-      </c>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="42">
-        <v>34</v>
-      </c>
-      <c r="S37" s="24"/>
+      <c r="P37" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="S37" s="51"/>
     </row>
     <row r="38" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="11">
         <v>1</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="11">
         <v>5</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="11">
         <v>31</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="11">
         <v>5</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="11">
         <v>29</v>
       </c>
-      <c r="N38" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P38" s="42">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="24"/>
+      <c r="N38" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P38" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="44"/>
     </row>
-    <row r="39" spans="1:19" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+    <row r="39" spans="1:19" ht="235.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="D39:S39"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="A1:S4"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P37:Q37"/>
     <mergeCell ref="P36:S36"/>
     <mergeCell ref="P38:S38"/>
     <mergeCell ref="R37:S37"/>
@@ -3691,65 +4180,9 @@
     <mergeCell ref="P23:S23"/>
     <mergeCell ref="P24:S24"/>
     <mergeCell ref="P25:S25"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="A1:S4"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:N39"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>